--- a/medicine/Enfance/Maison_des_jeunes/Maison_des_jeunes.xlsx
+++ b/medicine/Enfance/Maison_des_jeunes/Maison_des_jeunes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une maison des jeunes (MDJ) est, au Québec, un organisme communautaire qui a pour but d'offrir un milieu de vie complémentaire à la famille et à l'école, et qui incite les jeunes à s'impliquer dans la communauté et dans l'organisation d'activités de leur maison. Plus précisément, les maisons des jeunes se donnent pour mission d’améliorer la qualité de vie des 12-17 ans en offrant des activités de loisir par et pour les jeunes.
 Le but et la raison d’être d’une MDJ sont que les adolescents et les adolescentes deviennent autonomes, responsables et, qu'en développant des compétences personnelles et sociales, ils puissent faire une heureuse transition vers le monde adulte en devenant des citoyens critiques et actifs. Évidemment, ces buts ne sont réalisables qu’à long terme. Leur opérationnalisation serait impossible en l’absence d’objectifs spécifiques. Or, les moyens de rendre cette mission possible et de stimuler l’engagement sont d'encourager l'expression, l'implication et la responsabilisation des jeunes par le biais d'activités, de rencontres, de projets et d'événements qui se dérouleront avec l'aide d'adultes significatifs. Ce faisant, la MDJ espère contribuer significativement à développer chez les jeunes des habiletés à communiquer, l'estime de soi, l'esprit d'équipe et l'entraide.
